--- a/tool/db/data.xlsx
+++ b/tool/db/data.xlsx
@@ -13,12 +13,11 @@
     <sheet name="answer" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>name</t>
   </si>
@@ -44,9 +43,6 @@
     <t xml:space="preserve">认识你的人倾向形容你为： </t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>question_id</t>
   </si>
   <si>
@@ -65,9 +61,6 @@
     <t xml:space="preserve">下列哪一件事听起来比较吸引你？ </t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>与情人到有很多人且社交活动频繁的地方。</t>
   </si>
   <si>
@@ -81,6 +74,21 @@
   </si>
   <si>
     <t>题目2答案</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -116,9 +124,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +435,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,11 +477,12 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -480,7 +490,7 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
@@ -494,8 +504,8 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
+      <c r="B2" s="2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -508,11 +518,11 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
+      <c r="B3" s="2">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -526,19 +536,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="90.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -549,62 +560,77 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
     </row>
@@ -618,7 +644,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -646,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -660,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>2</v>

--- a/tool/db/data.xlsx
+++ b/tool/db/data.xlsx
@@ -76,9 +76,6 @@
     <t>题目2答案</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>answer_type</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +477,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +539,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +560,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -577,7 +577,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -594,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -611,7 +611,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -628,7 +628,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -644,7 +644,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tool/db/data.xlsx
+++ b/tool/db/data.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="4290" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="4290" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="paper" sheetId="2" r:id="rId1"/>
     <sheet name="question" sheetId="3" r:id="rId2"/>
     <sheet name="option" sheetId="4" r:id="rId3"/>
-    <sheet name="answer" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>name</t>
   </si>
@@ -67,15 +66,6 @@
     <t>呆在家中与情人做一些特别的事情，例如说观赏一部有趣的录影带并享用你最喜欢的外卖食物。</t>
   </si>
   <si>
-    <t>option_id</t>
-  </si>
-  <si>
-    <t>题目1答案</t>
-  </si>
-  <si>
-    <t>题目2答案</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -89,6 +79,30 @@
   </si>
   <si>
     <t>answer_type</t>
+  </si>
+  <si>
+    <t>你倾向通过以下哪种方式收集信息：</t>
+  </si>
+  <si>
+    <t>你对有可能发生之事的想像和期望。</t>
+  </si>
+  <si>
+    <t>你对目前状况的实际认知。</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你把大部分和别人的相遇视为： </t>
+  </si>
+  <si>
+    <t>友善及重要的。</t>
+  </si>
+  <si>
+    <t>另有目的。</t>
   </si>
 </sst>
 </file>
@@ -435,7 +449,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,10 +488,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,6 +542,34 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -536,10 +578,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -577,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -594,7 +636,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -611,7 +653,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -628,71 +670,78 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/tool/db/data.xlsx
+++ b/tool/db/data.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="4290" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="4290"/>
   </bookViews>
   <sheets>
     <sheet name="paper" sheetId="2" r:id="rId1"/>
     <sheet name="question" sheetId="3" r:id="rId2"/>
     <sheet name="option" sheetId="4" r:id="rId3"/>
+    <sheet name="report_template" sheetId="5" r:id="rId4"/>
+    <sheet name="report_paragraph_template" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>name</t>
   </si>
@@ -103,6 +105,39 @@
   </si>
   <si>
     <t>另有目的。</t>
+  </si>
+  <si>
+    <t>ISTJ</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>标题1</t>
+  </si>
+  <si>
+    <t>内容1</t>
+  </si>
+  <si>
+    <t>标题2</t>
+  </si>
+  <si>
+    <t>内容2</t>
+  </si>
+  <si>
+    <t>标题3</t>
+  </si>
+  <si>
+    <t>内容3</t>
+  </si>
+  <si>
+    <t>标题4</t>
+  </si>
+  <si>
+    <t>内容4</t>
+  </si>
+  <si>
+    <t>report_template_id</t>
   </si>
 </sst>
 </file>
@@ -448,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,4 +782,141 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>